--- a/script/excel/ingmo/settimana_ingmo.xlsx
+++ b/script/excel/ingmo/settimana_ingmo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\testIOT\excel\ingmo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\IOT\Biblio_IoT\script\excel\ingmo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1845642B-6BA1-4B41-88B2-51A2E7BBD881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682AC0E5-B01F-4AB4-A174-17498EBAEC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,10 +26,20 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Tuesday!$A$1:$BD$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Wednesday!$A$1:$BD$17</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1258,8 +1268,8 @@
   </sheetPr>
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="BG15" sqref="BG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3110,248 +3120,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="240">
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AO15:AP15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AO14:AP14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO13:AP13"/>
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AO10:AP10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -3365,8 +3133,8 @@
   </sheetPr>
   <dimension ref="A1:BD15"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+    <sheetView showRuler="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:BD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5378,250 +5146,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="242">
-    <mergeCell ref="AO15:AP15"/>
-    <mergeCell ref="AQ15:AR15"/>
-    <mergeCell ref="AS15:AT15"/>
-    <mergeCell ref="AU15:AV15"/>
-    <mergeCell ref="AW15:AX15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AO14:AP14"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AS12:AT12"/>
-    <mergeCell ref="AU12:AV12"/>
-    <mergeCell ref="AW12:AX12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO13:AP13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AU10:AV10"/>
-    <mergeCell ref="AW10:AX10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AO10:AP10"/>
-    <mergeCell ref="AU11:AV11"/>
-    <mergeCell ref="AW11:AX11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
@@ -5636,7 +5160,7 @@
   <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7636,247 +7160,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="239">
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AW14:AX14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AO14:AP14"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO13:AP13"/>
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AO10:AP10"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AW6:AX6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
@@ -7890,8 +7173,8 @@
   </sheetPr>
   <dimension ref="A1:BD15"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+    <sheetView showRuler="0" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9919,254 +9202,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="246">
-    <mergeCell ref="AU15:AV15"/>
-    <mergeCell ref="AW15:AX15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AO15:AP15"/>
-    <mergeCell ref="AQ15:AR15"/>
-    <mergeCell ref="AS15:AT15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AO14:AP14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO13:AP13"/>
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AS12:AT12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AU11:AV11"/>
-    <mergeCell ref="AW11:AX11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AO10:AP10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AW8:AX8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
@@ -10181,7 +9216,7 @@
   <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="AV6" sqref="AV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11077,7 +10112,7 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
+      <c r="AN7" s="5"/>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
@@ -12125,233 +11160,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="225">
-    <mergeCell ref="AU15:AV15"/>
-    <mergeCell ref="AW15:AX15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AO15:AP15"/>
-    <mergeCell ref="AQ15:AR15"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AS15:AT15"/>
-    <mergeCell ref="AO13:AP13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AO14:AP14"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AU11:AV11"/>
-    <mergeCell ref="AW11:AX11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AO10:AP10"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AW8:AX8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/script/excel/ingmo/settimana_ingmo.xlsx
+++ b/script/excel/ingmo/settimana_ingmo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\IOT\Biblio_IoT\script\excel\ingmo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mat/Documents/Arduino/Biblio_IoT/script/excel/ingmo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682AC0E5-B01F-4AB4-A174-17498EBAEC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D2F97C-2DB1-1E46-B76C-491B6545DD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="193">
   <si>
     <t>SDOPPIAMENTO LINFA (insegnamento fittizio)
 Lezione</t>
@@ -1268,18 +1268,18 @@
   </sheetPr>
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="BG15" sqref="BG15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="47" width="9.1796875" style="1" customWidth="1"/>
-    <col min="48" max="16384" width="8.81640625" style="1"/>
+    <col min="3" max="47" width="9.1640625" style="1" customWidth="1"/>
+    <col min="48" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C1" s="4" t="s">
         <v>104</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
@@ -1533,7 +1533,7 @@
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
     </row>
-    <row r="3" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -1642,7 +1642,7 @@
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
     </row>
-    <row r="4" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="AU4" s="2"/>
     </row>
-    <row r="5" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
     </row>
-    <row r="6" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
     </row>
-    <row r="7" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="AU7" s="2"/>
     </row>
-    <row r="8" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="AU8" s="2"/>
     </row>
-    <row r="9" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="AU9" s="2"/>
     </row>
-    <row r="10" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
     </row>
-    <row r="11" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="AU11" s="2"/>
     </row>
-    <row r="12" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
     </row>
-    <row r="13" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="AU13" s="2"/>
     </row>
-    <row r="14" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
     </row>
-    <row r="15" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -3137,14 +3137,14 @@
       <selection activeCell="C2" sqref="C2:BD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="56" width="9.1796875" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="56" width="9.1640625" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="C1" s="4" t="s">
         <v>108</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
@@ -3458,7 +3458,7 @@
       <c r="BC2" s="2"/>
       <c r="BD2" s="2"/>
     </row>
-    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
     </row>
-    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -3670,7 +3670,7 @@
       <c r="BC4" s="2"/>
       <c r="BD4" s="2"/>
     </row>
-    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
     </row>
-    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -3938,7 +3938,7 @@
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
     </row>
-    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="BC7" s="2"/>
       <c r="BD7" s="2"/>
     </row>
-    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -4190,7 +4190,7 @@
       <c r="BC8" s="2"/>
       <c r="BD8" s="2"/>
     </row>
-    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -4340,7 +4340,7 @@
       <c r="BC9" s="2"/>
       <c r="BD9" s="2"/>
     </row>
-    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -4474,7 +4474,7 @@
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
     </row>
-    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -4616,7 +4616,7 @@
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
     </row>
-    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -4750,7 +4750,7 @@
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
     </row>
-    <row r="13" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -4876,7 +4876,7 @@
       <c r="BC13" s="2"/>
       <c r="BD13" s="2"/>
     </row>
-    <row r="14" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -5010,7 +5010,7 @@
       <c r="BC14" s="2"/>
       <c r="BD14" s="2"/>
     </row>
-    <row r="15" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -5159,18 +5159,18 @@
   </sheetPr>
   <dimension ref="A1:BD15"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="56" width="9.1796875" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="56" width="9.1640625" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="C1" s="4" t="s">
         <v>108</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
@@ -5460,7 +5460,7 @@
       <c r="BC2" s="2"/>
       <c r="BD2" s="2"/>
     </row>
-    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
     </row>
-    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -5752,7 +5752,7 @@
       <c r="BC4" s="2"/>
       <c r="BD4" s="2"/>
     </row>
-    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -5894,7 +5894,7 @@
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
     </row>
-    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -6044,7 +6044,7 @@
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
     </row>
-    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="BC7" s="2"/>
       <c r="BD7" s="2"/>
     </row>
-    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -6312,7 +6312,7 @@
       <c r="BC8" s="2"/>
       <c r="BD8" s="2"/>
     </row>
-    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -6438,7 +6438,7 @@
       <c r="BC9" s="2"/>
       <c r="BD9" s="2"/>
     </row>
-    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -6572,7 +6572,7 @@
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
     </row>
-    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -6682,7 +6682,7 @@
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
     </row>
-    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -6784,7 +6784,7 @@
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
     </row>
-    <row r="13" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -6918,7 +6918,7 @@
       <c r="BC13" s="2"/>
       <c r="BD13" s="2"/>
     </row>
-    <row r="14" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -7040,7 +7040,7 @@
       <c r="BC14" s="2"/>
       <c r="BD14" s="2"/>
     </row>
-    <row r="15" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -7173,18 +7173,18 @@
   </sheetPr>
   <dimension ref="A1:BD15"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="56" width="9.1796875" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="56" width="9.1640625" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="C1" s="4" t="s">
         <v>108</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
@@ -7490,7 +7490,7 @@
       <c r="BC2" s="2"/>
       <c r="BD2" s="2"/>
     </row>
-    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -7616,7 +7616,7 @@
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
     </row>
-    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -7734,7 +7734,7 @@
       <c r="BC4" s="2"/>
       <c r="BD4" s="2"/>
     </row>
-    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -7761,45 +7761,19 @@
       <c r="N5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="6" t="s">
         <v>117</v>
       </c>
@@ -7860,7 +7834,7 @@
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
     </row>
-    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -7978,7 +7952,7 @@
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
     </row>
-    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -8088,7 +8062,7 @@
       <c r="BC7" s="2"/>
       <c r="BD7" s="2"/>
     </row>
-    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -8238,7 +8212,7 @@
       <c r="BC8" s="2"/>
       <c r="BD8" s="2"/>
     </row>
-    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -8388,7 +8362,7 @@
       <c r="BC9" s="2"/>
       <c r="BD9" s="2"/>
     </row>
-    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -8530,7 +8504,7 @@
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
     </row>
-    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -8672,7 +8646,7 @@
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
     </row>
-    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -8790,7 +8764,7 @@
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
     </row>
-    <row r="13" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -8932,7 +8906,7 @@
       <c r="BC13" s="2"/>
       <c r="BD13" s="2"/>
     </row>
-    <row r="14" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -8967,21 +8941,11 @@
       <c r="N14" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>143</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
       <c r="T14" s="6" t="s">
         <v>143</v>
       </c>
@@ -9050,7 +9014,7 @@
       <c r="BC14" s="2"/>
       <c r="BD14" s="2"/>
     </row>
-    <row r="15" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -9219,14 +9183,14 @@
       <selection activeCell="AV6" sqref="AV6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="56" width="9.1796875" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="56" width="9.1640625" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="C1" s="4" t="s">
         <v>108</v>
       </c>
@@ -9390,7 +9354,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
@@ -9524,7 +9488,7 @@
       <c r="BC2" s="2"/>
       <c r="BD2" s="2"/>
     </row>
-    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -9650,7 +9614,7 @@
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
     </row>
-    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -9768,7 +9732,7 @@
       <c r="BC4" s="2"/>
       <c r="BD4" s="2"/>
     </row>
-    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -9910,7 +9874,7 @@
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
     </row>
-    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -10028,7 +9992,7 @@
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
     </row>
-    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -10130,7 +10094,7 @@
       <c r="BC7" s="2"/>
       <c r="BD7" s="2"/>
     </row>
-    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -10260,7 +10224,7 @@
       <c r="BC8" s="2"/>
       <c r="BD8" s="2"/>
     </row>
-    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -10402,7 +10366,7 @@
       <c r="BC9" s="2"/>
       <c r="BD9" s="2"/>
     </row>
-    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -10520,7 +10484,7 @@
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
     </row>
-    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -10646,7 +10610,7 @@
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
     </row>
-    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -10764,7 +10728,7 @@
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
     </row>
-    <row r="13" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -10898,7 +10862,7 @@
       <c r="BC13" s="2"/>
       <c r="BD13" s="2"/>
     </row>
-    <row r="14" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -11024,7 +10988,7 @@
       <c r="BC14" s="2"/>
       <c r="BD14" s="2"/>
     </row>
-    <row r="15" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
